--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -49,84 +49,84 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
+    <t>cakes</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>cooke</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
@@ -142,52 +142,52 @@
     <t>tea</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>good</t>
+    <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>use</t>
@@ -620,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.310077519379845</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
@@ -670,13 +670,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +696,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>544</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>544</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +722,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8637770897832817</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>558</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>558</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -748,13 +748,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -774,13 +774,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7272727272727273</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -800,13 +800,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7229437229437229</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L9">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -826,13 +826,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -852,13 +852,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6901408450704225</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -878,13 +878,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6813559322033899</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L12">
-        <v>201</v>
+        <v>797</v>
       </c>
       <c r="M12">
-        <v>201</v>
+        <v>797</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>94</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -904,13 +904,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6514285714285715</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -930,13 +930,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -956,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6364365971107544</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L15">
-        <v>793</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>793</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>453</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -982,13 +982,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1008,13 +1008,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6142857142857143</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1034,13 +1034,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6029411764705882</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1060,13 +1060,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1112,13 +1112,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5614035087719298</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1138,13 +1138,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5389221556886228</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M22">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1164,13 +1164,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L23">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1190,13 +1190,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.4700854700854701</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1216,13 +1216,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4518072289156627</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>91</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1242,13 +1242,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.45</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1268,13 +1268,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4457831325301205</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1294,13 +1294,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.443609022556391</v>
+        <v>0.45</v>
       </c>
       <c r="L28">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M28">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1320,13 +1320,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4210526315789473</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1346,13 +1346,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.375</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L30">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="M30">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1372,13 +1372,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3385214007782101</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L31">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M31">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1398,13 +1398,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3308270676691729</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1424,13 +1424,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.310958904109589</v>
+        <v>0.3027397260273972</v>
       </c>
       <c r="L33">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M33">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1450,13 +1450,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.2805755395683453</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1476,13 +1476,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2535885167464115</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1502,13 +1502,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2454251883745963</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L36">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>701</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1528,13 +1528,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2100313479623825</v>
+        <v>0.2443487621097955</v>
       </c>
       <c r="L37">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="M37">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>252</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1554,13 +1554,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.1920529801324503</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1580,13 +1580,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.1814569536423841</v>
+        <v>0.2013245033112583</v>
       </c>
       <c r="L39">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M39">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1606,25 +1606,25 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.1769230769230769</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L40">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="M40">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="N40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>642</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1632,13 +1632,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1435523114355231</v>
+        <v>0.1751918158567775</v>
       </c>
       <c r="L41">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="M41">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>352</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1658,13 +1658,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1237113402061856</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>255</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1684,13 +1684,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1218487394957983</v>
+        <v>0.1338199513381995</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>209</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1710,13 +1710,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1162280701754386</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L44">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>403</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1762,13 +1762,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1143911439114391</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>240</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1788,25 +1788,25 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1135135135135135</v>
+        <v>0.09429824561403509</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M47">
         <v>43</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>328</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1814,13 +1814,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.08591885441527446</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L48">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>383</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1840,13 +1840,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.07943925233644859</v>
+        <v>0.07604017216642754</v>
       </c>
       <c r="L49">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="M49">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="N49">
         <v>0.98</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>985</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1866,25 +1866,25 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.06743185078909612</v>
+        <v>0.07002801120448179</v>
       </c>
       <c r="L50">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M50">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="N50">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>650</v>
+        <v>996</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1892,25 +1892,25 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.04072790294627383</v>
+        <v>0.03892733564013841</v>
       </c>
       <c r="L51">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
